--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H2">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I2">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J2">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.589151033101229</v>
+        <v>0.670718</v>
       </c>
       <c r="N2">
-        <v>0.589151033101229</v>
+        <v>2.012154</v>
       </c>
       <c r="O2">
-        <v>0.0628341118946744</v>
+        <v>0.05714337887504232</v>
       </c>
       <c r="P2">
-        <v>0.0628341118946744</v>
+        <v>0.06502159750685171</v>
       </c>
       <c r="Q2">
-        <v>81.23872379015802</v>
+        <v>101.7654073361233</v>
       </c>
       <c r="R2">
-        <v>81.23872379015802</v>
+        <v>915.8886660251102</v>
       </c>
       <c r="S2">
-        <v>0.01643690149462617</v>
+        <v>0.01543293781462191</v>
       </c>
       <c r="T2">
-        <v>0.01643690149462617</v>
+        <v>0.01809789361901269</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H3">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I3">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J3">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0376635438532496</v>
+        <v>0.04420533333333334</v>
       </c>
       <c r="N3">
-        <v>0.0376635438532496</v>
+        <v>0.132616</v>
       </c>
       <c r="O3">
-        <v>0.004016890739150136</v>
+        <v>0.003766176114200311</v>
       </c>
       <c r="P3">
-        <v>0.004016890739150136</v>
+        <v>0.004285409653022904</v>
       </c>
       <c r="Q3">
-        <v>5.193470034239791</v>
+        <v>6.707101573382224</v>
       </c>
       <c r="R3">
-        <v>5.193470034239791</v>
+        <v>60.36391416044001</v>
       </c>
       <c r="S3">
-        <v>0.001050786513936277</v>
+        <v>0.001017146044101942</v>
       </c>
       <c r="T3">
-        <v>0.001050786513936277</v>
+        <v>0.001192786566127139</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H4">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I4">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J4">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.95617326269525</v>
+        <v>3.258457666666667</v>
       </c>
       <c r="N4">
-        <v>1.95617326269525</v>
+        <v>9.775373</v>
       </c>
       <c r="O4">
-        <v>0.2086297108341729</v>
+        <v>0.2776118741328243</v>
       </c>
       <c r="P4">
-        <v>0.2086297108341729</v>
+        <v>0.3158855478682772</v>
       </c>
       <c r="Q4">
-        <v>269.7390150319676</v>
+        <v>494.3929814554662</v>
       </c>
       <c r="R4">
-        <v>269.7390150319676</v>
+        <v>4449.536833099195</v>
       </c>
       <c r="S4">
-        <v>0.05457586496299778</v>
+        <v>0.07497573427467978</v>
       </c>
       <c r="T4">
-        <v>0.05457586496299778</v>
+        <v>0.08792252513484004</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H5">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I5">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J5">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.98297887124226</v>
+        <v>3.497636333333334</v>
       </c>
       <c r="N5">
-        <v>2.98297887124226</v>
+        <v>10.492909</v>
       </c>
       <c r="O5">
-        <v>0.3181405406156365</v>
+        <v>0.2979892565322244</v>
       </c>
       <c r="P5">
-        <v>0.3181405406156365</v>
+        <v>0.3390723104066696</v>
       </c>
       <c r="Q5">
-        <v>411.3264391935457</v>
+        <v>530.6826209752707</v>
       </c>
       <c r="R5">
-        <v>411.3264391935457</v>
+        <v>4776.143588777436</v>
       </c>
       <c r="S5">
-        <v>0.0832230228114284</v>
+        <v>0.0804791343463207</v>
       </c>
       <c r="T5">
-        <v>0.0832230228114284</v>
+        <v>0.09437625094102184</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H6">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I6">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J6">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.81032612330598</v>
+        <v>4.2664405</v>
       </c>
       <c r="N6">
-        <v>3.81032612330598</v>
+        <v>8.532881</v>
       </c>
       <c r="O6">
-        <v>0.406378745916366</v>
+        <v>0.3634893143457086</v>
       </c>
       <c r="P6">
-        <v>0.406378745916366</v>
+        <v>0.2757351345651786</v>
       </c>
       <c r="Q6">
-        <v>525.4103177113352</v>
+        <v>647.3302570645692</v>
       </c>
       <c r="R6">
-        <v>525.4103177113352</v>
+        <v>3883.981542387415</v>
       </c>
       <c r="S6">
-        <v>0.1063054321088155</v>
+        <v>0.09816899341643494</v>
       </c>
       <c r="T6">
-        <v>0.1063054321088155</v>
+        <v>0.07674719360530786</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H7">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I7">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J7">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.589151033101229</v>
+        <v>0.670718</v>
       </c>
       <c r="N7">
-        <v>0.589151033101229</v>
+        <v>2.012154</v>
       </c>
       <c r="O7">
-        <v>0.0628341118946744</v>
+        <v>0.05714337887504232</v>
       </c>
       <c r="P7">
-        <v>0.0628341118946744</v>
+        <v>0.06502159750685171</v>
       </c>
       <c r="Q7">
-        <v>44.54291921036852</v>
+        <v>55.165798259378</v>
       </c>
       <c r="R7">
-        <v>44.54291921036852</v>
+        <v>496.4921843344021</v>
       </c>
       <c r="S7">
-        <v>0.009012297844991727</v>
+        <v>0.008366009200149392</v>
       </c>
       <c r="T7">
-        <v>0.009012297844991727</v>
+        <v>0.00981064955607705</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H8">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I8">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J8">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0376635438532496</v>
+        <v>0.04420533333333334</v>
       </c>
       <c r="N8">
-        <v>0.0376635438532496</v>
+        <v>0.132616</v>
       </c>
       <c r="O8">
-        <v>0.004016890739150136</v>
+        <v>0.003766176114200311</v>
       </c>
       <c r="P8">
-        <v>0.004016890739150136</v>
+        <v>0.004285409653022904</v>
       </c>
       <c r="Q8">
-        <v>2.847562164493757</v>
+        <v>3.635838758845333</v>
       </c>
       <c r="R8">
-        <v>2.847562164493757</v>
+        <v>32.722548829608</v>
       </c>
       <c r="S8">
-        <v>0.0005761427138922974</v>
+        <v>0.0005513825860679708</v>
       </c>
       <c r="T8">
-        <v>0.0005761427138922974</v>
+        <v>0.0006465951917838864</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H9">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I9">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J9">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.95617326269525</v>
+        <v>3.258457666666667</v>
       </c>
       <c r="N9">
-        <v>1.95617326269525</v>
+        <v>9.775373</v>
       </c>
       <c r="O9">
-        <v>0.2086297108341729</v>
+        <v>0.2776118741328243</v>
       </c>
       <c r="P9">
-        <v>0.2086297108341729</v>
+        <v>0.3158855478682772</v>
       </c>
       <c r="Q9">
-        <v>147.896995347789</v>
+        <v>268.0044642846277</v>
       </c>
       <c r="R9">
-        <v>147.896995347789</v>
+        <v>2412.040178561649</v>
       </c>
       <c r="S9">
-        <v>0.0299237633294444</v>
+        <v>0.04064344004131491</v>
       </c>
       <c r="T9">
-        <v>0.0299237633294444</v>
+        <v>0.04766173900354425</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H10">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I10">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J10">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.98297887124226</v>
+        <v>3.497636333333334</v>
       </c>
       <c r="N10">
-        <v>2.98297887124226</v>
+        <v>10.492909</v>
       </c>
       <c r="O10">
-        <v>0.3181405406156365</v>
+        <v>0.2979892565322244</v>
       </c>
       <c r="P10">
-        <v>0.3181405406156365</v>
+        <v>0.3390723104066696</v>
       </c>
       <c r="Q10">
-        <v>225.5289041395098</v>
+        <v>287.6766395852463</v>
       </c>
       <c r="R10">
-        <v>225.5289041395098</v>
+        <v>2589.089756267217</v>
       </c>
       <c r="S10">
-        <v>0.04563090369449171</v>
+        <v>0.04362676675360353</v>
       </c>
       <c r="T10">
-        <v>0.04563090369449171</v>
+        <v>0.05116022581910077</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H11">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I11">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J11">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.81032612330598</v>
+        <v>4.2664405</v>
       </c>
       <c r="N11">
-        <v>3.81032612330598</v>
+        <v>8.532881</v>
       </c>
       <c r="O11">
-        <v>0.406378745916366</v>
+        <v>0.3634893143457086</v>
       </c>
       <c r="P11">
-        <v>0.406378745916366</v>
+        <v>0.2757351345651786</v>
       </c>
       <c r="Q11">
-        <v>288.0807112943021</v>
+        <v>350.9099143136755</v>
       </c>
       <c r="R11">
-        <v>288.0807112943021</v>
+        <v>2105.459485882053</v>
       </c>
       <c r="S11">
-        <v>0.0582869111321508</v>
+        <v>0.05321622570870316</v>
       </c>
       <c r="T11">
-        <v>0.0582869111321508</v>
+        <v>0.04160372674989503</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>113.916721093036</v>
+        <v>123.444321</v>
       </c>
       <c r="H12">
-        <v>113.916721093036</v>
+        <v>370.332963</v>
       </c>
       <c r="I12">
-        <v>0.2161103161480222</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J12">
-        <v>0.2161103161480222</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.589151033101229</v>
+        <v>0.670718</v>
       </c>
       <c r="N12">
-        <v>0.589151033101229</v>
+        <v>2.012154</v>
       </c>
       <c r="O12">
-        <v>0.0628341118946744</v>
+        <v>0.05714337887504232</v>
       </c>
       <c r="P12">
-        <v>0.0628341118946744</v>
+        <v>0.06502159750685171</v>
       </c>
       <c r="Q12">
-        <v>67.11415391946672</v>
+        <v>82.79632809247801</v>
       </c>
       <c r="R12">
-        <v>67.11415391946672</v>
+        <v>745.1669528323021</v>
       </c>
       <c r="S12">
-        <v>0.01357909978643829</v>
+        <v>0.01255623709646051</v>
       </c>
       <c r="T12">
-        <v>0.01357909978643829</v>
+        <v>0.01472444494732193</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>113.916721093036</v>
+        <v>123.444321</v>
       </c>
       <c r="H13">
-        <v>113.916721093036</v>
+        <v>370.332963</v>
       </c>
       <c r="I13">
-        <v>0.2161103161480222</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J13">
-        <v>0.2161103161480222</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.0376635438532496</v>
+        <v>0.04420533333333334</v>
       </c>
       <c r="N13">
-        <v>0.0376635438532496</v>
+        <v>0.132616</v>
       </c>
       <c r="O13">
-        <v>0.004016890739150136</v>
+        <v>0.003766176114200311</v>
       </c>
       <c r="P13">
-        <v>0.004016890739150136</v>
+        <v>0.004285409653022904</v>
       </c>
       <c r="Q13">
-        <v>4.290507420505965</v>
+        <v>5.456897357912001</v>
       </c>
       <c r="R13">
-        <v>4.290507420505965</v>
+        <v>49.11207622120801</v>
       </c>
       <c r="S13">
-        <v>0.0008680915275697983</v>
+        <v>0.0008275499483559444</v>
       </c>
       <c r="T13">
-        <v>0.0008680915275697983</v>
+        <v>0.0009704510644483696</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>113.916721093036</v>
+        <v>123.444321</v>
       </c>
       <c r="H14">
-        <v>113.916721093036</v>
+        <v>370.332963</v>
       </c>
       <c r="I14">
-        <v>0.2161103161480222</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J14">
-        <v>0.2161103161480222</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.95617326269525</v>
+        <v>3.258457666666667</v>
       </c>
       <c r="N14">
-        <v>1.95617326269525</v>
+        <v>9.775373</v>
       </c>
       <c r="O14">
-        <v>0.2086297108341729</v>
+        <v>0.2776118741328243</v>
       </c>
       <c r="P14">
-        <v>0.2086297108341729</v>
+        <v>0.3158855478682772</v>
       </c>
       <c r="Q14">
-        <v>222.840843976109</v>
+        <v>402.238094168911</v>
       </c>
       <c r="R14">
-        <v>222.840843976109</v>
+        <v>3620.142847520199</v>
       </c>
       <c r="S14">
-        <v>0.04508703276624355</v>
+        <v>0.06100025201566999</v>
       </c>
       <c r="T14">
-        <v>0.04508703276624355</v>
+        <v>0.07153376012871637</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>113.916721093036</v>
+        <v>123.444321</v>
       </c>
       <c r="H15">
-        <v>113.916721093036</v>
+        <v>370.332963</v>
       </c>
       <c r="I15">
-        <v>0.2161103161480222</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J15">
-        <v>0.2161103161480222</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.98297887124226</v>
+        <v>3.497636333333334</v>
       </c>
       <c r="N15">
-        <v>2.98297887124226</v>
+        <v>10.492909</v>
       </c>
       <c r="O15">
-        <v>0.3181405406156365</v>
+        <v>0.2979892565322244</v>
       </c>
       <c r="P15">
-        <v>0.3181405406156365</v>
+        <v>0.3390723104066696</v>
       </c>
       <c r="Q15">
-        <v>339.8111721017239</v>
+        <v>431.763342273263</v>
       </c>
       <c r="R15">
-        <v>339.8111721017239</v>
+        <v>3885.870080459367</v>
       </c>
       <c r="S15">
-        <v>0.06875345281194789</v>
+        <v>0.06547781791830265</v>
       </c>
       <c r="T15">
-        <v>0.06875345281194789</v>
+        <v>0.07678451098064996</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>113.916721093036</v>
+        <v>123.444321</v>
       </c>
       <c r="H16">
-        <v>113.916721093036</v>
+        <v>370.332963</v>
       </c>
       <c r="I16">
-        <v>0.2161103161480222</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J16">
-        <v>0.2161103161480222</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.81032612330598</v>
+        <v>4.2664405</v>
       </c>
       <c r="N16">
-        <v>3.81032612330598</v>
+        <v>8.532881</v>
       </c>
       <c r="O16">
-        <v>0.406378745916366</v>
+        <v>0.3634893143457086</v>
       </c>
       <c r="P16">
-        <v>0.406378745916366</v>
+        <v>0.2757351345651786</v>
       </c>
       <c r="Q16">
-        <v>434.0598582621564</v>
+        <v>526.6678506094005</v>
       </c>
       <c r="R16">
-        <v>434.0598582621564</v>
+        <v>3160.007103656403</v>
       </c>
       <c r="S16">
-        <v>0.08782263925582263</v>
+        <v>0.07987028598597549</v>
       </c>
       <c r="T16">
-        <v>0.08782263925582263</v>
+        <v>0.06244151119971396</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>150.902023922951</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H17">
-        <v>150.902023922951</v>
+        <v>463.02893</v>
       </c>
       <c r="I17">
-        <v>0.2862747784913111</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J17">
-        <v>0.2862747784913111</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.589151033101229</v>
+        <v>0.670718</v>
       </c>
       <c r="N17">
-        <v>0.589151033101229</v>
+        <v>2.012154</v>
       </c>
       <c r="O17">
-        <v>0.0628341118946744</v>
+        <v>0.05714337887504232</v>
       </c>
       <c r="P17">
-        <v>0.0628341118946744</v>
+        <v>0.06502159750685171</v>
       </c>
       <c r="Q17">
-        <v>88.90408329127295</v>
+        <v>103.5206126239133</v>
       </c>
       <c r="R17">
-        <v>88.90408329127295</v>
+        <v>931.6855136152201</v>
       </c>
       <c r="S17">
-        <v>0.01798782146434617</v>
+        <v>0.01569911838390798</v>
       </c>
       <c r="T17">
-        <v>0.01798782146434617</v>
+        <v>0.01841003818178177</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>150.902023922951</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H18">
-        <v>150.902023922951</v>
+        <v>463.02893</v>
       </c>
       <c r="I18">
-        <v>0.2862747784913111</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J18">
-        <v>0.2862747784913111</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.0376635438532496</v>
+        <v>0.04420533333333334</v>
       </c>
       <c r="N18">
-        <v>0.0376635438532496</v>
+        <v>0.132616</v>
       </c>
       <c r="O18">
-        <v>0.004016890739150136</v>
+        <v>0.003766176114200311</v>
       </c>
       <c r="P18">
-        <v>0.004016890739150136</v>
+        <v>0.004285409653022904</v>
       </c>
       <c r="Q18">
-        <v>5.683504995566185</v>
+        <v>6.822782731208889</v>
       </c>
       <c r="R18">
-        <v>5.683504995566185</v>
+        <v>61.40504458088001</v>
       </c>
       <c r="S18">
-        <v>0.001149934506574004</v>
+        <v>0.001034689334713119</v>
       </c>
       <c r="T18">
-        <v>0.001149934506574004</v>
+        <v>0.001213359227730667</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>150.902023922951</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H19">
-        <v>150.902023922951</v>
+        <v>463.02893</v>
       </c>
       <c r="I19">
-        <v>0.2862747784913111</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J19">
-        <v>0.2862747784913111</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.95617326269525</v>
+        <v>3.258457666666667</v>
       </c>
       <c r="N19">
-        <v>1.95617326269525</v>
+        <v>9.775373</v>
       </c>
       <c r="O19">
-        <v>0.2086297108341729</v>
+        <v>0.2776118741328243</v>
       </c>
       <c r="P19">
-        <v>0.2086297108341729</v>
+        <v>0.3158855478682772</v>
       </c>
       <c r="Q19">
-        <v>295.1905044846757</v>
+        <v>502.9200556156544</v>
       </c>
       <c r="R19">
-        <v>295.1905044846757</v>
+        <v>4526.28050054089</v>
       </c>
       <c r="S19">
-        <v>0.05972542425575913</v>
+        <v>0.07626888298502885</v>
       </c>
       <c r="T19">
-        <v>0.05972542425575913</v>
+        <v>0.08943897443792008</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>150.902023922951</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H20">
-        <v>150.902023922951</v>
+        <v>463.02893</v>
       </c>
       <c r="I20">
-        <v>0.2862747784913111</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J20">
-        <v>0.2862747784913111</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.98297887124226</v>
+        <v>3.497636333333334</v>
       </c>
       <c r="N20">
-        <v>2.98297887124226</v>
+        <v>10.492909</v>
       </c>
       <c r="O20">
-        <v>0.3181405406156365</v>
+        <v>0.2979892565322244</v>
       </c>
       <c r="P20">
-        <v>0.3181405406156365</v>
+        <v>0.3390723104066696</v>
       </c>
       <c r="Q20">
-        <v>450.1375489898568</v>
+        <v>539.8356029841523</v>
       </c>
       <c r="R20">
-        <v>450.1375489898568</v>
+        <v>4858.520426857371</v>
       </c>
       <c r="S20">
-        <v>0.09107561279384728</v>
+        <v>0.08186720329685181</v>
       </c>
       <c r="T20">
-        <v>0.09107561279384728</v>
+        <v>0.09600401128738736</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>150.902023922951</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H21">
-        <v>150.902023922951</v>
+        <v>463.02893</v>
       </c>
       <c r="I21">
-        <v>0.2862747784913111</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J21">
-        <v>0.2862747784913111</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.81032612330598</v>
+        <v>4.2664405</v>
       </c>
       <c r="N21">
-        <v>3.81032612330598</v>
+        <v>8.532881</v>
       </c>
       <c r="O21">
-        <v>0.406378745916366</v>
+        <v>0.3634893143457086</v>
       </c>
       <c r="P21">
-        <v>0.406378745916366</v>
+        <v>0.2757351345651786</v>
       </c>
       <c r="Q21">
-        <v>574.9859238133641</v>
+        <v>658.4951265412216</v>
       </c>
       <c r="R21">
-        <v>574.9859238133641</v>
+        <v>3950.97075924733</v>
       </c>
       <c r="S21">
-        <v>0.1163359854707845</v>
+        <v>0.09986216932809253</v>
       </c>
       <c r="T21">
-        <v>0.1163359854707845</v>
+        <v>0.07807089567229955</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>48.8078372759574</v>
+        <v>50.0323125</v>
       </c>
       <c r="H22">
-        <v>48.8078372759574</v>
+        <v>100.064625</v>
       </c>
       <c r="I22">
-        <v>0.09259287875389165</v>
+        <v>0.08905802352064279</v>
       </c>
       <c r="J22">
-        <v>0.09259287875389165</v>
+        <v>0.06118845668531954</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.589151033101229</v>
+        <v>0.670718</v>
       </c>
       <c r="N22">
-        <v>0.589151033101229</v>
+        <v>2.012154</v>
       </c>
       <c r="O22">
-        <v>0.0628341118946744</v>
+        <v>0.05714337887504232</v>
       </c>
       <c r="P22">
-        <v>0.0628341118946744</v>
+        <v>0.06502159750685171</v>
       </c>
       <c r="Q22">
-        <v>28.75518775456697</v>
+        <v>33.557572575375</v>
       </c>
       <c r="R22">
-        <v>28.75518775456697</v>
+        <v>201.34543545225</v>
       </c>
       <c r="S22">
-        <v>0.005817991304272047</v>
+        <v>0.005089076379902521</v>
       </c>
       <c r="T22">
-        <v>0.005817991304272047</v>
+        <v>0.003978571202658277</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>48.8078372759574</v>
+        <v>50.0323125</v>
       </c>
       <c r="H23">
-        <v>48.8078372759574</v>
+        <v>100.064625</v>
       </c>
       <c r="I23">
-        <v>0.09259287875389165</v>
+        <v>0.08905802352064279</v>
       </c>
       <c r="J23">
-        <v>0.09259287875389165</v>
+        <v>0.06118845668531954</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.0376635438532496</v>
+        <v>0.04420533333333334</v>
       </c>
       <c r="N23">
-        <v>0.0376635438532496</v>
+        <v>0.132616</v>
       </c>
       <c r="O23">
-        <v>0.004016890739150136</v>
+        <v>0.003766176114200311</v>
       </c>
       <c r="P23">
-        <v>0.004016890739150136</v>
+        <v>0.004285409653022904</v>
       </c>
       <c r="Q23">
-        <v>1.838276119625292</v>
+        <v>2.2116950515</v>
       </c>
       <c r="R23">
-        <v>1.838276119625292</v>
+        <v>13.270170309</v>
       </c>
       <c r="S23">
-        <v>0.0003719354771777587</v>
+        <v>0.0003354082009613344</v>
       </c>
       <c r="T23">
-        <v>0.0003719354771777587</v>
+        <v>0.0002622176029328422</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>48.8078372759574</v>
+        <v>50.0323125</v>
       </c>
       <c r="H24">
-        <v>48.8078372759574</v>
+        <v>100.064625</v>
       </c>
       <c r="I24">
-        <v>0.09259287875389165</v>
+        <v>0.08905802352064279</v>
       </c>
       <c r="J24">
-        <v>0.09259287875389165</v>
+        <v>0.06118845668531954</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.95617326269525</v>
+        <v>3.258457666666667</v>
       </c>
       <c r="N24">
-        <v>1.95617326269525</v>
+        <v>9.775373</v>
       </c>
       <c r="O24">
-        <v>0.2086297108341729</v>
+        <v>0.2776118741328243</v>
       </c>
       <c r="P24">
-        <v>0.2086297108341729</v>
+        <v>0.3158855478682772</v>
       </c>
       <c r="Q24">
-        <v>95.47658628920843</v>
+        <v>163.0281722466875</v>
       </c>
       <c r="R24">
-        <v>95.47658628920843</v>
+        <v>978.1690334801251</v>
       </c>
       <c r="S24">
-        <v>0.01931762551972805</v>
+        <v>0.0247235648161308</v>
       </c>
       <c r="T24">
-        <v>0.01931762551972805</v>
+        <v>0.01932854916325651</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>48.8078372759574</v>
+        <v>50.0323125</v>
       </c>
       <c r="H25">
-        <v>48.8078372759574</v>
+        <v>100.064625</v>
       </c>
       <c r="I25">
-        <v>0.09259287875389165</v>
+        <v>0.08905802352064279</v>
       </c>
       <c r="J25">
-        <v>0.09259287875389165</v>
+        <v>0.06118845668531954</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.98297887124226</v>
+        <v>3.497636333333334</v>
       </c>
       <c r="N25">
-        <v>2.98297887124226</v>
+        <v>10.492909</v>
       </c>
       <c r="O25">
-        <v>0.3181405406156365</v>
+        <v>0.2979892565322244</v>
       </c>
       <c r="P25">
-        <v>0.3181405406156365</v>
+        <v>0.3390723104066696</v>
       </c>
       <c r="Q25">
-        <v>145.5927473452113</v>
+        <v>174.9948340406875</v>
       </c>
       <c r="R25">
-        <v>145.5927473452113</v>
+        <v>1049.969004244125</v>
       </c>
       <c r="S25">
-        <v>0.02945754850392117</v>
+        <v>0.0265383342171457</v>
       </c>
       <c r="T25">
-        <v>0.02945754850392117</v>
+        <v>0.02074731137850973</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>48.8078372759574</v>
+        <v>50.0323125</v>
       </c>
       <c r="H26">
-        <v>48.8078372759574</v>
+        <v>100.064625</v>
       </c>
       <c r="I26">
-        <v>0.09259287875389165</v>
+        <v>0.08905802352064279</v>
       </c>
       <c r="J26">
-        <v>0.09259287875389165</v>
+        <v>0.06118845668531954</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.81032612330598</v>
+        <v>4.2664405</v>
       </c>
       <c r="N26">
-        <v>3.81032612330598</v>
+        <v>8.532881</v>
       </c>
       <c r="O26">
-        <v>0.406378745916366</v>
+        <v>0.3634893143457086</v>
       </c>
       <c r="P26">
-        <v>0.406378745916366</v>
+        <v>0.2757351345651786</v>
       </c>
       <c r="Q26">
-        <v>185.9737773946478</v>
+        <v>213.4598843586563</v>
       </c>
       <c r="R26">
-        <v>185.9737773946478</v>
+        <v>853.8395374346251</v>
       </c>
       <c r="S26">
-        <v>0.03762777794879262</v>
+        <v>0.03237163990650244</v>
       </c>
       <c r="T26">
-        <v>0.03762777794879262</v>
+        <v>0.01687180733796218</v>
       </c>
     </row>
   </sheetData>
